--- a/Test Sheet - Updated 19-04-2021.xlsx
+++ b/Test Sheet - Updated 19-04-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanmccloy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F699B75-AFDB-BA4D-871A-3BB96D0C14E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59302680-A7B8-41DD-8293-643B78C12286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>Test case ID</t>
   </si>
@@ -393,6 +393,63 @@
   </si>
   <si>
     <t>Arduino uno was used to test the basic functions of prototype 1 by setting upper and lower limits for light levels and temperature to create a basic feedback circuit before building on it by using an ESP32 and the BME680 sensor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System is off with no battery </t>
+  </si>
+  <si>
+    <t>Insert battery in to snap</t>
+  </si>
+  <si>
+    <t>LED should turn on when power is on and LDR has low light intensity</t>
+  </si>
+  <si>
+    <t>Gareth Bryans</t>
+  </si>
+  <si>
+    <t>Testing for sensitivity of LDR</t>
+  </si>
+  <si>
+    <t>Circuit is on, potentiometer at lowest resistance so LDR is most sensitive</t>
+  </si>
+  <si>
+    <t>Apply finger over LDR</t>
+  </si>
+  <si>
+    <t>LED should be on nearly all the time due to resistance being low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing sensitivity of LDR </t>
+  </si>
+  <si>
+    <t>Circuit is on, potentiometer at highest resistance so LDR is least sensitive</t>
+  </si>
+  <si>
+    <t>LED should be off in light conditions and glowing dimly in dark conditions</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED still shone brightly as before on low resistance. Maximum resistance of potentiometer not high enough </t>
+  </si>
+  <si>
+    <t>Repeat of 1.4.2, except with additional resistor in series with potentiometer to increase resistance</t>
+  </si>
+  <si>
+    <t>Testing for power on separate dark-detecting circuit board for prototype 2</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
   </si>
 </sst>
 </file>
@@ -519,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -561,15 +618,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -582,6 +630,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,23 +925,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="85.5" customWidth="1"/>
+    <col min="6" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="85.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,12 +966,12 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -936,10 +996,10 @@
       <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -964,10 +1024,10 @@
       <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -992,10 +1052,10 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1020,10 +1080,10 @@
       <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -1048,10 +1108,10 @@
       <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1076,10 +1136,10 @@
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1104,10 +1164,10 @@
       <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1132,10 +1192,10 @@
       <c r="H9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1160,10 +1220,10 @@
       <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -1188,10 +1248,10 @@
       <c r="H11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
@@ -1216,10 +1276,10 @@
       <c r="H12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
@@ -1244,10 +1304,10 @@
       <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -1272,10 +1332,10 @@
       <c r="H14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -1300,10 +1360,10 @@
       <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -1328,10 +1388,10 @@
       <c r="H16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
@@ -1356,11 +1416,11 @@
       <c r="H17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="31" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1369,28 +1429,28 @@
       <c r="C18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>44242</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1402,368 +1462,434 @@
       <c r="D19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>44242</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <v>44242</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>44242</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44305</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44305</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44305</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44305</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F38" s="17"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F41" s="17"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F42" s="17"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F43" s="17"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="18"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
@@ -1772,10 +1898,10 @@
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
@@ -1784,10 +1910,10 @@
       <c r="F47" s="6"/>
       <c r="G47" s="9"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
@@ -1796,10 +1922,10 @@
       <c r="F48" s="6"/>
       <c r="G48" s="9"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
@@ -1808,10 +1934,10 @@
       <c r="F49" s="6"/>
       <c r="G49" s="9"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1820,10 +1946,10 @@
       <c r="F50" s="6"/>
       <c r="G50" s="9"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -1832,10 +1958,10 @@
       <c r="F51" s="6"/>
       <c r="G51" s="9"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -1844,10 +1970,10 @@
       <c r="F52" s="6"/>
       <c r="G52" s="9"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="8"/>
@@ -1856,10 +1982,10 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1868,10 +1994,10 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1880,561 +2006,419 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-    </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-    </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-    </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-    </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-    </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-    </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-    </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-    </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-    </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-    </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-    </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-    </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-    </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-    </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-    </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-    </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-    </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-    </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-    </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-    </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-    </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-    </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-    </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-    </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-    </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-    </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-    </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-    </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-    </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-    </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-    </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-    </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-    </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-    </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-    </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-    </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-    </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-    </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-    </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-    </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-    </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-    </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-    </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-    </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-    </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-    </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-    </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-    </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-    </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-    </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-    </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
-    </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
-    </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-    </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-    </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
-    </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-    </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="I143:J143"/>
-    <mergeCell ref="I144:J144"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="I147:J147"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
@@ -2450,6 +2434,148 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="I143:J143"/>
+    <mergeCell ref="I144:J144"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="I147:J147"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="I153:J153"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
